--- a/R/aws_cluster.xlsx
+++ b/R/aws_cluster.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -363,105 +363,170 @@
           <t>time_elapsed</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>time_elapsed_oidc</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>759.9450000000001</v>
+        <v>2594.727</v>
+      </c>
+      <c r="B2">
+        <v>1805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>760.224</v>
+        <v>2885.034</v>
+      </c>
+      <c r="B3">
+        <v>2133</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>790.448</v>
+        <v>2766.108</v>
+      </c>
+      <c r="B4">
+        <v>1820</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>744.852</v>
+        <v>2570.61</v>
+      </c>
+      <c r="B5">
+        <v>1821</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>754.157</v>
+        <v>2629.164</v>
+      </c>
+      <c r="B6">
+        <v>1871</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>750.1420000000001</v>
+        <v>2611.574</v>
+      </c>
+      <c r="B7">
+        <v>1827</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>723.5890000000001</v>
+        <v>2593.397</v>
+      </c>
+      <c r="B8">
+        <v>1820</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>753.3390000000001</v>
+        <v>2911.612</v>
+      </c>
+      <c r="B9">
+        <v>2075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>822.367</v>
+        <v>2559.397</v>
+      </c>
+      <c r="B10">
+        <v>1793</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>762.845</v>
+        <v>2675.619</v>
+      </c>
+      <c r="B11">
+        <v>1900</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>762.151</v>
+        <v>2679.319</v>
+      </c>
+      <c r="B12">
+        <v>1806</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>736.85</v>
+        <v>2746.628</v>
+      </c>
+      <c r="B13">
+        <v>1739</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>756.2569999999999</v>
+        <v>2566.481</v>
+      </c>
+      <c r="B14">
+        <v>1798</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>762.556</v>
+        <v>2558.722</v>
+      </c>
+      <c r="B15">
+        <v>1827</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>736.402</v>
+        <v>2576.981</v>
+      </c>
+      <c r="B16">
+        <v>1813</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>706.114</v>
+        <v>2620.607</v>
+      </c>
+      <c r="B17">
+        <v>1807</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>703.242</v>
+        <v>2501.998</v>
+      </c>
+      <c r="B18">
+        <v>1746</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>752.527</v>
+        <v>2420.686</v>
+      </c>
+      <c r="B19">
+        <v>1692</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>735.453</v>
+        <v>2348.576</v>
+      </c>
+      <c r="B20">
+        <v>1655</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>766.101</v>
+        <v>2701.98</v>
+      </c>
+      <c r="B21">
+        <v>1942</v>
       </c>
     </row>
   </sheetData>
